--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_CALAMCO.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_CALAMCO.xlsx
@@ -599,13 +599,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
         <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31</v>
-      </c>
-      <c r="D9" t="n">
-        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="D10" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
         <v>0.046</v>
       </c>
       <c r="E10" t="n">
-        <v>0.015</v>
+        <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
